--- a/Documentation/接口交互文档版本记录/用户管理接口交互.xlsx
+++ b/Documentation/接口交互文档版本记录/用户管理接口交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>权限展示：所有页面对应权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +275,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -396,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +471,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,6 +486,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,17 +504,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -814,320 +840,338 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" ht="21" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F3" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.5">
-      <c r="A16" s="3" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="40.5">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1">
-      <c r="A17" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="40.5">
-      <c r="A23" s="28" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="40.5">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" ht="27">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="27">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="F9:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/接口交互文档版本记录/用户管理接口交互.xlsx
+++ b/Documentation/接口交互文档版本记录/用户管理接口交互.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21705" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,33 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId  用户主键：字符串拼接，英文逗号分隔，首尾不能为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员：用户名查重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserNameQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">json类型
+true：代表用户已存在；
+false：代表用户不存在
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,6 +502,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,12 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -841,234 +869,244 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" customHeight="1">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40.5">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="40.5">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:6" s="7" customFormat="1">
+      <c r="A17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1">
-      <c r="A18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="54">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
       <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1">
       <c r="A20" s="9"/>
@@ -1132,7 +1170,7 @@
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1152,26 +1190,26 @@
       <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="E3:E8"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F3:F8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
